--- a/biology/Botanique/Glandularia_peruviana/Glandularia_peruviana.xlsx
+++ b/biology/Botanique/Glandularia_peruviana/Glandularia_peruviana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glandularia peruviana est une espèce de plantes herbacées vivace de la famille des Verbenaceae, originaire d'Amérique du Sud.
 Elle est parfois appelée verveine du Pérou. C'est une espèce ornementale.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La verveine du Pérou est une plante herbacée prostrée, de 10 cm de haut qui s'étale sur un rayon de 50–60 cm de diamètre. C'est une plante pérenne cultivée comme annuelle. Les tiges, le calice et les nervures sont couvertes de poils glanduleux et simples.
 Les feuilles opposées sont pétiolées en bas, sessile vers le haut. Le limbe oblongue fait 4–5 cm de long sur 2-2,3 cm de large. Sa base est tronquée et sa marge est doublement dentée. Les nervures sur la face inférieure sont couvertes de nombreux poils simples et de quelques poils glanduleux ; la marge est ciliée.
@@ -547,7 +561,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Glandularia peruviana est originaire d'Amérique de Sud (Brésil, Bolivie, Argentine) ; elle est cultivée au Pérou.
 Elle croît en plein soleil.
